--- a/site/special/2018/2018-08-25-geo-china/loc.xlsx
+++ b/site/special/2018/2018-08-25-geo-china/loc.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D7DB48CD-7F06-4A86-894C-4F9B1C0D8E61}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8FED5DFE-FF36-4901-B4FF-F59B7BDAB4FF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2432,12 +2432,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2452,8 +2458,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2737,7 +2744,7 @@
   <dimension ref="A1:G256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2745,7 +2752,7 @@
     <col min="1" max="3" width="20.25" customWidth="1"/>
     <col min="4" max="4" width="13.625" customWidth="1"/>
     <col min="5" max="5" width="14.25" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="40.875" customWidth="1"/>
     <col min="7" max="7" width="20.375" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
     <col min="9" max="9" width="12.25" customWidth="1"/>
@@ -2790,7 +2797,7 @@
       <c r="E2">
         <v>48.7411855199</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>463</v>
       </c>
     </row>
@@ -2810,7 +2817,7 @@
       <c r="E3">
         <v>48.031052319499999</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>464</v>
       </c>
     </row>
@@ -2830,7 +2837,7 @@
       <c r="E4">
         <v>44.053117841999999</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>694</v>
       </c>
     </row>
@@ -2850,7 +2857,7 @@
       <c r="E5">
         <v>47.194801969700002</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2870,7 +2877,7 @@
       <c r="E6">
         <v>44.573371909700001</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>466</v>
       </c>
     </row>
@@ -2890,7 +2897,7 @@
       <c r="E7">
         <v>45.780891286399999</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>467</v>
       </c>
     </row>
@@ -2910,7 +2917,7 @@
       <c r="E8">
         <v>52.938402177599997</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>468</v>
       </c>
     </row>
@@ -2930,7 +2937,7 @@
       <c r="E9">
         <v>51.983931195300002</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>469</v>
       </c>
     </row>
@@ -2950,7 +2957,7 @@
       <c r="E10">
         <v>43.863990803999997</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>470</v>
       </c>
     </row>
@@ -2970,7 +2977,7 @@
       <c r="E11">
         <v>43.863990803999997</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>471</v>
       </c>
     </row>
@@ -2990,7 +2997,7 @@
       <c r="E12">
         <v>44.871805803400001</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>472</v>
       </c>
     </row>
@@ -3010,7 +3017,7 @@
       <c r="E13">
         <v>43.872961811700002</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3030,7 +3037,7 @@
       <c r="E14">
         <v>43.863990803999997</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3050,7 +3057,7 @@
       <c r="E15">
         <v>44.8251132539</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>475</v>
       </c>
     </row>
@@ -3070,7 +3077,7 @@
       <c r="E16">
         <v>43.863990803999997</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>476</v>
       </c>
     </row>
@@ -3090,7 +3097,7 @@
       <c r="E17">
         <v>41.512377669300001</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>477</v>
       </c>
     </row>

--- a/site/special/2018/2018-08-25-geo-china/loc.xlsx
+++ b/site/special/2018/2018-08-25-geo-china/loc.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8FED5DFE-FF36-4901-B4FF-F59B7BDAB4FF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0B7B7C16-5970-4F2A-ACAE-56839463EA70}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2744,7 +2744,7 @@
   <dimension ref="A1:G256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3117,7 +3117,7 @@
       <c r="E18">
         <v>41.795807418499997</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1" t="s">
         <v>478</v>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       <c r="E19">
         <v>41.757133615199997</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="1" t="s">
         <v>479</v>
       </c>
     </row>

--- a/site/special/2018/2018-08-25-geo-china/loc.xlsx
+++ b/site/special/2018/2018-08-25-geo-china/loc.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0B7B7C16-5970-4F2A-ACAE-56839463EA70}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2B635C-AB06-4F24-B885-D4D2003AA902}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2743,8 +2743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G256"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3157,7 +3157,7 @@
       <c r="E20">
         <v>41.850067916900002</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="1" t="s">
         <v>480</v>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       <c r="E21">
         <v>41.0530680695</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="1" t="s">
         <v>481</v>
       </c>
     </row>
@@ -3197,7 +3197,7 @@
       <c r="E22">
         <v>41.604077812699998</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="1" t="s">
         <v>482</v>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       <c r="E23">
         <v>41.541874094999997</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="1" t="s">
         <v>483</v>
       </c>
     </row>
@@ -5597,7 +5597,7 @@
       <c r="E142">
         <v>49.2874783663</v>
       </c>
-      <c r="G142" t="s">
+      <c r="G142" s="1" t="s">
         <v>592</v>
       </c>
     </row>
